--- a/plantilla_informe.xlsx
+++ b/plantilla_informe.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{B4210BB8-DB97-46A6-BA6D-477728C15AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38373AB-4C37-4B85-AA32-B37699306F2B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="5" xr2:uid="{EE191230-CD0E-4694-88B9-B6953B0CF003}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{EE191230-CD0E-4694-88B9-B6953B0CF003}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS ENTRADA R DIRECTO" sheetId="3" state="hidden" r:id="rId1"/>
@@ -2532,24 +2532,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2576,6 +2558,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8671,8 +8671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729218B3-4399-44C3-9746-EAE4F692C86C}">
   <dimension ref="A2:AM36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10447,150 +10447,150 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="194"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="188"/>
       <c r="V9" s="51"/>
       <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="197"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="191"/>
       <c r="V10" s="51"/>
       <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="196"/>
-      <c r="S11" s="196"/>
-      <c r="T11" s="196"/>
-      <c r="U11" s="197"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="191"/>
       <c r="V11" s="51"/>
       <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="196"/>
-      <c r="S12" s="196"/>
-      <c r="T12" s="196"/>
-      <c r="U12" s="197"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="191"/>
       <c r="V12" s="51"/>
       <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="197"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="191"/>
       <c r="V13" s="51"/>
       <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="199"/>
-      <c r="S14" s="199"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="200"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="194"/>
       <c r="V14" s="51"/>
       <c r="W14" s="38"/>
     </row>
@@ -12345,150 +12345,150 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="194"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="188"/>
       <c r="V9" s="51"/>
       <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="197"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="191"/>
       <c r="V10" s="51"/>
       <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="196"/>
-      <c r="S11" s="196"/>
-      <c r="T11" s="196"/>
-      <c r="U11" s="197"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="191"/>
       <c r="V11" s="51"/>
       <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="196"/>
-      <c r="S12" s="196"/>
-      <c r="T12" s="196"/>
-      <c r="U12" s="197"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="191"/>
       <c r="V12" s="51"/>
       <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="197"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="191"/>
       <c r="V13" s="51"/>
       <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="199"/>
-      <c r="S14" s="199"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="200"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="194"/>
       <c r="V14" s="51"/>
       <c r="W14" s="38"/>
     </row>
@@ -14243,150 +14243,150 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="194"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="188"/>
       <c r="V9" s="51"/>
       <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="197"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="191"/>
       <c r="V10" s="51"/>
       <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="196"/>
-      <c r="S11" s="196"/>
-      <c r="T11" s="196"/>
-      <c r="U11" s="197"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="191"/>
       <c r="V11" s="51"/>
       <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="196"/>
-      <c r="S12" s="196"/>
-      <c r="T12" s="196"/>
-      <c r="U12" s="197"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="191"/>
       <c r="V12" s="51"/>
       <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="197"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="191"/>
       <c r="V13" s="51"/>
       <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="199"/>
-      <c r="S14" s="199"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="200"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="194"/>
       <c r="V14" s="51"/>
       <c r="W14" s="38"/>
     </row>
@@ -15904,7 +15904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CF3B65-0416-4626-80E7-6DFBB576A5F9}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:U14"/>
     </sheetView>
   </sheetViews>
@@ -16141,150 +16141,150 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="47"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="194"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="187"/>
+      <c r="P9" s="187"/>
+      <c r="Q9" s="187"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="188"/>
       <c r="V9" s="51"/>
       <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="196"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="197"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="190"/>
+      <c r="U10" s="191"/>
       <c r="V10" s="51"/>
       <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="47"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="196"/>
-      <c r="S11" s="196"/>
-      <c r="T11" s="196"/>
-      <c r="U11" s="197"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="190"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="191"/>
       <c r="V11" s="51"/>
       <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="196"/>
-      <c r="Q12" s="196"/>
-      <c r="R12" s="196"/>
-      <c r="S12" s="196"/>
-      <c r="T12" s="196"/>
-      <c r="U12" s="197"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="191"/>
       <c r="V12" s="51"/>
       <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="197"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="191"/>
       <c r="V13" s="51"/>
       <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="199"/>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="199"/>
-      <c r="O14" s="199"/>
-      <c r="P14" s="199"/>
-      <c r="Q14" s="199"/>
-      <c r="R14" s="199"/>
-      <c r="S14" s="199"/>
-      <c r="T14" s="199"/>
-      <c r="U14" s="200"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="194"/>
       <c r="V14" s="51"/>
       <c r="W14" s="38"/>
     </row>
@@ -17817,209 +17817,209 @@
       </c>
     </row>
     <row r="4" spans="6:108" x14ac:dyDescent="0.35">
-      <c r="F4" s="190" t="s">
+      <c r="F4" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="190"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="199"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
       <c r="Y4" s="112"/>
-      <c r="Z4" s="186" t="s">
+      <c r="Z4" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="186"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="186"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="186"/>
-      <c r="AF4" s="186"/>
-      <c r="AG4" s="186"/>
-      <c r="AH4" s="186"/>
-      <c r="AI4" s="186"/>
-      <c r="AJ4" s="186"/>
-      <c r="AK4" s="186"/>
-      <c r="AL4" s="186"/>
-      <c r="AM4" s="186"/>
-      <c r="AN4" s="186"/>
-      <c r="AO4" s="186"/>
-      <c r="AP4" s="186"/>
-      <c r="AQ4" s="186"/>
-      <c r="AR4" s="186"/>
-      <c r="AS4" s="186"/>
-      <c r="AU4" s="186" t="s">
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
+      <c r="AD4" s="195"/>
+      <c r="AE4" s="195"/>
+      <c r="AF4" s="195"/>
+      <c r="AG4" s="195"/>
+      <c r="AH4" s="195"/>
+      <c r="AI4" s="195"/>
+      <c r="AJ4" s="195"/>
+      <c r="AK4" s="195"/>
+      <c r="AL4" s="195"/>
+      <c r="AM4" s="195"/>
+      <c r="AN4" s="195"/>
+      <c r="AO4" s="195"/>
+      <c r="AP4" s="195"/>
+      <c r="AQ4" s="195"/>
+      <c r="AR4" s="195"/>
+      <c r="AS4" s="195"/>
+      <c r="AU4" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="AV4" s="186"/>
-      <c r="AW4" s="186"/>
-      <c r="AX4" s="186"/>
-      <c r="AY4" s="186"/>
-      <c r="AZ4" s="186"/>
-      <c r="BA4" s="186"/>
-      <c r="BB4" s="186"/>
-      <c r="BC4" s="186"/>
-      <c r="BD4" s="186"/>
-      <c r="BE4" s="186"/>
-      <c r="BF4" s="186"/>
-      <c r="BG4" s="186"/>
-      <c r="BH4" s="186"/>
-      <c r="BI4" s="186"/>
-      <c r="BJ4" s="186"/>
-      <c r="BK4" s="186"/>
-      <c r="BL4" s="186"/>
-      <c r="BM4" s="186"/>
-      <c r="BN4" s="186"/>
+      <c r="AV4" s="195"/>
+      <c r="AW4" s="195"/>
+      <c r="AX4" s="195"/>
+      <c r="AY4" s="195"/>
+      <c r="AZ4" s="195"/>
+      <c r="BA4" s="195"/>
+      <c r="BB4" s="195"/>
+      <c r="BC4" s="195"/>
+      <c r="BD4" s="195"/>
+      <c r="BE4" s="195"/>
+      <c r="BF4" s="195"/>
+      <c r="BG4" s="195"/>
+      <c r="BH4" s="195"/>
+      <c r="BI4" s="195"/>
+      <c r="BJ4" s="195"/>
+      <c r="BK4" s="195"/>
+      <c r="BL4" s="195"/>
+      <c r="BM4" s="195"/>
+      <c r="BN4" s="195"/>
       <c r="BO4" s="112"/>
-      <c r="BP4" s="186" t="s">
+      <c r="BP4" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="BQ4" s="186"/>
-      <c r="BR4" s="186"/>
-      <c r="BS4" s="186"/>
-      <c r="BT4" s="186"/>
-      <c r="BU4" s="186"/>
-      <c r="BV4" s="186"/>
-      <c r="BW4" s="186"/>
-      <c r="BX4" s="186"/>
-      <c r="BY4" s="186"/>
-      <c r="BZ4" s="186"/>
-      <c r="CA4" s="186"/>
-      <c r="CB4" s="186"/>
-      <c r="CC4" s="186"/>
-      <c r="CD4" s="186"/>
-      <c r="CE4" s="186"/>
-      <c r="CF4" s="186"/>
-      <c r="CG4" s="186"/>
-      <c r="CH4" s="186"/>
-      <c r="CI4" s="186"/>
-      <c r="CK4" s="186" t="s">
+      <c r="BQ4" s="195"/>
+      <c r="BR4" s="195"/>
+      <c r="BS4" s="195"/>
+      <c r="BT4" s="195"/>
+      <c r="BU4" s="195"/>
+      <c r="BV4" s="195"/>
+      <c r="BW4" s="195"/>
+      <c r="BX4" s="195"/>
+      <c r="BY4" s="195"/>
+      <c r="BZ4" s="195"/>
+      <c r="CA4" s="195"/>
+      <c r="CB4" s="195"/>
+      <c r="CC4" s="195"/>
+      <c r="CD4" s="195"/>
+      <c r="CE4" s="195"/>
+      <c r="CF4" s="195"/>
+      <c r="CG4" s="195"/>
+      <c r="CH4" s="195"/>
+      <c r="CI4" s="195"/>
+      <c r="CK4" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="CL4" s="186"/>
-      <c r="CM4" s="186"/>
-      <c r="CN4" s="186"/>
-      <c r="CO4" s="186"/>
-      <c r="CP4" s="186"/>
-      <c r="CQ4" s="186"/>
-      <c r="CR4" s="186"/>
-      <c r="CS4" s="186"/>
-      <c r="CT4" s="186"/>
-      <c r="CU4" s="186"/>
-      <c r="CV4" s="186"/>
-      <c r="CW4" s="186"/>
-      <c r="CX4" s="186"/>
-      <c r="CY4" s="186"/>
-      <c r="CZ4" s="186"/>
-      <c r="DA4" s="186"/>
-      <c r="DB4" s="186"/>
-      <c r="DC4" s="186"/>
-      <c r="DD4" s="186"/>
+      <c r="CL4" s="195"/>
+      <c r="CM4" s="195"/>
+      <c r="CN4" s="195"/>
+      <c r="CO4" s="195"/>
+      <c r="CP4" s="195"/>
+      <c r="CQ4" s="195"/>
+      <c r="CR4" s="195"/>
+      <c r="CS4" s="195"/>
+      <c r="CT4" s="195"/>
+      <c r="CU4" s="195"/>
+      <c r="CV4" s="195"/>
+      <c r="CW4" s="195"/>
+      <c r="CX4" s="195"/>
+      <c r="CY4" s="195"/>
+      <c r="CZ4" s="195"/>
+      <c r="DA4" s="195"/>
+      <c r="DB4" s="195"/>
+      <c r="DC4" s="195"/>
+      <c r="DD4" s="195"/>
     </row>
     <row r="5" spans="6:108" x14ac:dyDescent="0.35">
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
-      <c r="K5" s="191"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="191"/>
-      <c r="N5" s="191"/>
-      <c r="O5" s="191"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="191"/>
-      <c r="T5" s="191"/>
-      <c r="U5" s="191"/>
-      <c r="V5" s="191"/>
-      <c r="W5" s="191"/>
-      <c r="Z5" s="187" t="s">
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="Z5" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="188"/>
-      <c r="AB5" s="188"/>
-      <c r="AC5" s="188"/>
-      <c r="AD5" s="188"/>
-      <c r="AE5" s="188"/>
-      <c r="AF5" s="188"/>
-      <c r="AG5" s="188"/>
-      <c r="AH5" s="188"/>
-      <c r="AI5" s="188"/>
-      <c r="AJ5" s="188"/>
-      <c r="AK5" s="188"/>
-      <c r="AL5" s="188"/>
-      <c r="AM5" s="188"/>
-      <c r="AN5" s="188"/>
-      <c r="AO5" s="189"/>
-      <c r="AU5" s="187" t="s">
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="198"/>
+      <c r="AU5" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="AV5" s="188"/>
-      <c r="AW5" s="188"/>
-      <c r="AX5" s="188"/>
-      <c r="AY5" s="188"/>
-      <c r="AZ5" s="188"/>
-      <c r="BA5" s="188"/>
-      <c r="BB5" s="188"/>
-      <c r="BC5" s="188"/>
-      <c r="BD5" s="188"/>
-      <c r="BE5" s="188"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="188"/>
-      <c r="BH5" s="188"/>
-      <c r="BI5" s="188"/>
-      <c r="BJ5" s="189"/>
-      <c r="BP5" s="187" t="s">
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="197"/>
+      <c r="BA5" s="197"/>
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="197"/>
+      <c r="BG5" s="197"/>
+      <c r="BH5" s="197"/>
+      <c r="BI5" s="197"/>
+      <c r="BJ5" s="198"/>
+      <c r="BP5" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="BQ5" s="188"/>
-      <c r="BR5" s="188"/>
-      <c r="BS5" s="188"/>
-      <c r="BT5" s="188"/>
-      <c r="BU5" s="188"/>
-      <c r="BV5" s="188"/>
-      <c r="BW5" s="188"/>
-      <c r="BX5" s="188"/>
-      <c r="BY5" s="188"/>
-      <c r="BZ5" s="188"/>
-      <c r="CA5" s="188"/>
-      <c r="CB5" s="188"/>
-      <c r="CC5" s="188"/>
-      <c r="CD5" s="188"/>
-      <c r="CE5" s="189"/>
-      <c r="CK5" s="187" t="s">
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="197"/>
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="197"/>
+      <c r="BV5" s="197"/>
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="197"/>
+      <c r="BZ5" s="197"/>
+      <c r="CA5" s="197"/>
+      <c r="CB5" s="197"/>
+      <c r="CC5" s="197"/>
+      <c r="CD5" s="197"/>
+      <c r="CE5" s="198"/>
+      <c r="CK5" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="CL5" s="188"/>
-      <c r="CM5" s="188"/>
-      <c r="CN5" s="188"/>
-      <c r="CO5" s="188"/>
-      <c r="CP5" s="188"/>
-      <c r="CQ5" s="188"/>
-      <c r="CR5" s="188"/>
-      <c r="CS5" s="188"/>
-      <c r="CT5" s="188"/>
-      <c r="CU5" s="188"/>
-      <c r="CV5" s="188"/>
-      <c r="CW5" s="188"/>
-      <c r="CX5" s="188"/>
-      <c r="CY5" s="188"/>
-      <c r="CZ5" s="189"/>
+      <c r="CL5" s="197"/>
+      <c r="CM5" s="197"/>
+      <c r="CN5" s="197"/>
+      <c r="CO5" s="197"/>
+      <c r="CP5" s="197"/>
+      <c r="CQ5" s="197"/>
+      <c r="CR5" s="197"/>
+      <c r="CS5" s="197"/>
+      <c r="CT5" s="197"/>
+      <c r="CU5" s="197"/>
+      <c r="CV5" s="197"/>
+      <c r="CW5" s="197"/>
+      <c r="CX5" s="197"/>
+      <c r="CY5" s="197"/>
+      <c r="CZ5" s="198"/>
     </row>
     <row r="6" spans="6:108" x14ac:dyDescent="0.35">
       <c r="F6" s="10" t="s">
